--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
   <si>
     <t>PERIOD</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>TICC</t>
+  </si>
+  <si>
+    <t>BDAY 3/6/2023</t>
   </si>
 </sst>
 </file>
@@ -1764,10 +1767,10 @@
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1933,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.7940000000000005</v>
+        <v>11.044</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1940,7 +1943,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.41700000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4105,19 +4108,27 @@
       <c r="A110" s="40">
         <v>44986</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
+      <c r="B110" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="47">
+        <v>45000</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
@@ -4414,10 +4425,10 @@
   </sheetPr>
   <dimension ref="A2:K183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="E109" sqref="E109"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,7 +4589,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.687999999999999</v>
+        <v>10.687999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6750,10 +6761,16 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
+      <c r="D118" s="39">
+        <v>1</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -6763,7 +6780,9 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="20" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
@@ -7807,17 +7826,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
   <si>
     <t>PERIOD</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>BDAY 3/6/2023</t>
+  </si>
+  <si>
+    <t>4/11,12/2023</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1767,7 +1770,7 @@
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
@@ -4425,10 +4428,10 @@
   </sheetPr>
   <dimension ref="A2:K183"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="E109" sqref="E109"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,7 +4592,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.687999999999999</v>
+        <v>8.6879999999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6785,10 +6788,16 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
+      <c r="D119" s="39">
+        <v>2</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -6798,7 +6807,9 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="20" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
@@ -7826,17 +7837,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FF948-9BDF-478C-8127-F16F57893626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -462,12 +463,15 @@
   </si>
   <si>
     <t>4/11,12/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1409,25 +1413,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1439,25 +1443,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K183" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K183" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1764,34 +1768,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A100" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111:K113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1812,11 +1816,13 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54" t="s">
+        <v>142</v>
+      </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -1832,7 +1838,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1860,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1862,7 +1868,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1875,7 +1881,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1892,7 +1898,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1951,7 +1957,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -1969,7 +1975,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -2015,7 +2021,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -2031,7 +2037,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -2049,7 +2055,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -2095,7 +2101,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -2117,7 +2123,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -2133,7 +2139,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43191</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2173,7 +2179,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43221</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -2211,7 +2217,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43252</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43282</v>
       </c>
@@ -2253,7 +2259,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43313</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43344</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>65</v>
@@ -2323,7 +2329,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43374</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -2365,7 +2371,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>95</v>
@@ -2411,7 +2417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>101</v>
       </c>
@@ -2429,7 +2435,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2495,7 +2501,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -2537,7 +2543,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -2555,7 +2561,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43647</v>
       </c>
@@ -2577,7 +2583,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43678</v>
       </c>
@@ -2597,7 +2603,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -2617,7 +2623,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -2637,7 +2643,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -2657,7 +2663,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43800</v>
       </c>
@@ -2677,7 +2683,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
         <v>105</v>
       </c>
@@ -2695,7 +2701,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43831</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43862</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43891</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -2789,7 +2795,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>51</v>
@@ -2809,7 +2815,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -2829,7 +2835,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -2849,7 +2855,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>45</v>
@@ -2897,7 +2903,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44044</v>
       </c>
@@ -2917,7 +2923,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44075</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -2963,7 +2969,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -2985,7 +2991,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>46</v>
@@ -3007,7 +3013,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3029,7 +3035,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44105</v>
       </c>
@@ -3049,7 +3055,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44136</v>
       </c>
@@ -3069,7 +3075,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44166</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>44179</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="46" t="s">
         <v>110</v>
       </c>
@@ -3113,7 +3119,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44197</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44228</v>
       </c>
@@ -3159,7 +3165,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44256</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>45</v>
@@ -3205,7 +3211,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -3225,7 +3231,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -3245,7 +3251,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -3265,7 +3271,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>78</v>
@@ -3311,7 +3317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>73</v>
@@ -3333,7 +3339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -3355,7 +3361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>114</v>
@@ -3375,7 +3381,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>116</v>
@@ -3395,7 +3401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>87</v>
@@ -3417,7 +3423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3433,7 +3439,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44409</v>
       </c>
@@ -3453,7 +3459,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44440</v>
       </c>
@@ -3473,7 +3479,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44470</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -3519,7 +3525,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3535,7 +3541,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44866</v>
       </c>
@@ -3555,7 +3561,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44896</v>
       </c>
@@ -3575,7 +3581,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="46" t="s">
         <v>119</v>
       </c>
@@ -3593,7 +3599,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44562</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44593</v>
       </c>
@@ -3637,7 +3643,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44621</v>
       </c>
@@ -3657,7 +3663,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44652</v>
       </c>
@@ -3677,7 +3683,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44682</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>75</v>
@@ -3723,7 +3729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>45</v>
@@ -3745,7 +3751,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44713</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44743</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44774</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -3847,7 +3853,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3899,7 +3905,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>44892</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>132</v>
@@ -3947,7 +3953,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44896</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -3997,7 +4003,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>134</v>
       </c>
@@ -4015,7 +4021,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4061,7 +4067,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>55</v>
@@ -4083,7 +4089,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>44958</v>
       </c>
@@ -4107,7 +4113,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>44986</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45017</v>
       </c>
@@ -4142,16 +4148,13 @@
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G111" s="13"/>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="47"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45047</v>
       </c>
@@ -4160,16 +4163,13 @@
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G112" s="13"/>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45078</v>
       </c>
@@ -4178,16 +4178,13 @@
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G113" s="13"/>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45108</v>
       </c>
@@ -4205,7 +4202,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45139</v>
       </c>
@@ -4223,7 +4220,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45170</v>
       </c>
@@ -4241,7 +4238,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45200</v>
       </c>
@@ -4259,7 +4256,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45231</v>
       </c>
@@ -4277,7 +4274,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45261</v>
       </c>
@@ -4295,7 +4292,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45292</v>
       </c>
@@ -4313,7 +4310,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45323</v>
       </c>
@@ -4331,7 +4328,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45352</v>
       </c>
@@ -4349,7 +4346,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4365,7 +4362,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -4395,11 +4392,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4422,34 +4419,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="E109" sqref="E109"/>
       <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4470,7 +4467,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4490,7 +4487,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4507,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4518,7 +4515,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4531,7 +4528,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4548,7 +4545,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4607,7 +4604,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>48</v>
       </c>
@@ -4629,7 +4626,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>40863</v>
       </c>
@@ -4649,7 +4646,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>40878</v>
       </c>
@@ -4669,7 +4666,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>47</v>
       </c>
@@ -4687,7 +4684,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>40909</v>
       </c>
@@ -4707,7 +4704,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>40940</v>
       </c>
@@ -4727,7 +4724,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>40969</v>
       </c>
@@ -4747,7 +4744,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>41000</v>
       </c>
@@ -4767,7 +4764,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>41030</v>
       </c>
@@ -4791,7 +4788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -4809,7 +4806,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>41061</v>
       </c>
@@ -4829,7 +4826,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>41091</v>
       </c>
@@ -4853,7 +4850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -4871,7 +4868,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>41122</v>
       </c>
@@ -4893,7 +4890,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>41153</v>
       </c>
@@ -4913,7 +4910,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>41183</v>
       </c>
@@ -4933,7 +4930,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>41214</v>
       </c>
@@ -4957,7 +4954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -4979,7 +4976,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -4999,7 +4996,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -5017,7 +5014,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>41244</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -5059,7 +5056,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>57</v>
       </c>
@@ -5077,7 +5074,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>41275</v>
       </c>
@@ -5101,7 +5098,7 @@
         <v>41296</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>58</v>
@@ -5121,7 +5118,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -5139,7 +5136,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>41306</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>59</v>
@@ -5185,7 +5182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -5203,7 +5200,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>41334</v>
       </c>
@@ -5227,7 +5224,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>41365</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -5273,7 +5270,7 @@
         <v>41394</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>63</v>
@@ -5293,7 +5290,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -5311,7 +5308,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>41395</v>
       </c>
@@ -5335,7 +5332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -5353,7 +5350,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>41426</v>
       </c>
@@ -5373,7 +5370,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>41456</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>41461</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -5415,7 +5412,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>41487</v>
       </c>
@@ -5435,7 +5432,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>41518</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -5477,7 +5474,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>41548</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -5517,7 +5514,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>41579</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>69</v>
@@ -5563,7 +5560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>41609</v>
       </c>
@@ -5583,7 +5580,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
         <v>71</v>
       </c>
@@ -5601,7 +5598,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>41640</v>
       </c>
@@ -5621,7 +5618,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>41671</v>
       </c>
@@ -5643,7 +5640,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>41699</v>
       </c>
@@ -5661,7 +5658,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>41730</v>
       </c>
@@ -5679,7 +5676,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>41760</v>
       </c>
@@ -5697,7 +5694,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>41791</v>
       </c>
@@ -5715,7 +5712,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>41821</v>
       </c>
@@ -5733,7 +5730,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>41852</v>
       </c>
@@ -5757,7 +5754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5773,7 +5770,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>41883</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>41913</v>
       </c>
@@ -5815,7 +5812,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>41944</v>
       </c>
@@ -5833,7 +5830,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>41974</v>
       </c>
@@ -5851,7 +5848,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
         <v>77</v>
       </c>
@@ -5869,7 +5866,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>42005</v>
       </c>
@@ -5889,7 +5886,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="47"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>42036</v>
       </c>
@@ -5907,7 +5904,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>42064</v>
       </c>
@@ -5925,7 +5922,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>42095</v>
       </c>
@@ -5943,7 +5940,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>42125</v>
       </c>
@@ -5961,7 +5958,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>42156</v>
       </c>
@@ -5979,7 +5976,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>42186</v>
       </c>
@@ -5997,7 +5994,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>42217</v>
       </c>
@@ -6015,7 +6012,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>42248</v>
       </c>
@@ -6033,7 +6030,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>42278</v>
       </c>
@@ -6051,7 +6048,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>42309</v>
       </c>
@@ -6069,7 +6066,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="46" t="s">
         <v>79</v>
       </c>
@@ -6087,7 +6084,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>42370</v>
       </c>
@@ -6105,7 +6102,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>42401</v>
       </c>
@@ -6123,7 +6120,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>42430</v>
       </c>
@@ -6141,7 +6138,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>42461</v>
       </c>
@@ -6159,7 +6156,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>42491</v>
       </c>
@@ -6177,7 +6174,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>42522</v>
       </c>
@@ -6195,7 +6192,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>42552</v>
       </c>
@@ -6219,7 +6216,7 @@
         <v>42553</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6235,7 +6232,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>42583</v>
       </c>
@@ -6253,7 +6250,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>42614</v>
       </c>
@@ -6271,7 +6268,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>42644</v>
       </c>
@@ -6289,7 +6286,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>42675</v>
       </c>
@@ -6307,7 +6304,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>42705</v>
       </c>
@@ -6325,7 +6322,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="46" t="s">
         <v>80</v>
       </c>
@@ -6343,7 +6340,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>42736</v>
       </c>
@@ -6367,7 +6364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>42767</v>
       </c>
@@ -6385,7 +6382,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>42795</v>
       </c>
@@ -6403,7 +6400,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>42826</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>55</v>
@@ -6449,7 +6446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>42856</v>
       </c>
@@ -6467,7 +6464,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>42887</v>
       </c>
@@ -6485,7 +6482,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>42917</v>
       </c>
@@ -6509,7 +6506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>42948</v>
       </c>
@@ -6527,7 +6524,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>42979</v>
       </c>
@@ -6545,7 +6542,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>43009</v>
       </c>
@@ -6569,7 +6566,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>43040</v>
       </c>
@@ -6587,7 +6584,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>43070</v>
       </c>
@@ -6611,7 +6608,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="46" t="s">
         <v>119</v>
       </c>
@@ -6629,7 +6626,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>44805</v>
       </c>
@@ -6653,7 +6650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>44896</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>50</v>
@@ -6699,7 +6696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="46" t="s">
         <v>134</v>
       </c>
@@ -6717,7 +6714,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>44927</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>44958</v>
       </c>
@@ -6763,7 +6760,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>44986</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45017</v>
       </c>
@@ -6811,7 +6808,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -6827,7 +6824,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -6843,7 +6840,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -6859,7 +6856,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -6875,7 +6872,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -6891,7 +6888,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -6907,7 +6904,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -6923,7 +6920,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -6939,7 +6936,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -6955,7 +6952,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -6971,7 +6968,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -6987,7 +6984,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -7003,7 +7000,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -7019,7 +7016,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -7035,7 +7032,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -7051,7 +7048,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -7067,7 +7064,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -7083,7 +7080,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -7099,7 +7096,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -7115,7 +7112,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -7131,7 +7128,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -7147,7 +7144,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -7163,7 +7160,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -7179,7 +7176,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -7195,7 +7192,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -7211,7 +7208,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -7227,7 +7224,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -7243,7 +7240,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -7259,7 +7256,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -7275,7 +7272,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -7291,7 +7288,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -7307,7 +7304,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -7323,7 +7320,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -7339,7 +7336,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -7355,7 +7352,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -7371,7 +7368,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -7387,7 +7384,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -7403,7 +7400,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -7419,7 +7416,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -7435,7 +7432,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -7451,7 +7448,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -7467,7 +7464,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -7483,7 +7480,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -7499,7 +7496,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -7515,7 +7512,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -7531,7 +7528,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -7547,7 +7544,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -7563,7 +7560,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -7579,7 +7576,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -7595,7 +7592,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -7611,7 +7608,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -7627,7 +7624,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -7643,7 +7640,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7659,7 +7656,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7675,7 +7672,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7691,7 +7688,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7707,7 +7704,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7723,7 +7720,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7739,7 +7736,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7755,7 +7752,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7771,7 +7768,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7787,7 +7784,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7803,7 +7800,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7819,7 +7816,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="15"/>
       <c r="C183" s="42"/>
@@ -7837,23 +7834,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7876,28 +7873,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7910,7 +7907,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7939,7 +7936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>11.044</v>
       </c>
@@ -7969,7 +7966,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.5</v>
@@ -7984,10 +7981,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8007,7 +8004,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8033,7 +8030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8059,7 +8056,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8085,7 +8082,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8111,7 +8108,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8137,7 +8134,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8163,7 +8160,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8189,7 +8186,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8215,7 +8212,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8235,7 +8232,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8255,7 +8252,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8275,7 +8272,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8296,7 +8293,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8317,7 +8314,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8338,7 +8335,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8359,7 +8356,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8380,7 +8377,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8401,7 +8398,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8422,7 +8419,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8443,7 +8440,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8464,7 +8461,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8485,7 +8482,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8506,7 +8503,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8527,7 +8524,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8548,7 +8545,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8569,7 +8566,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8590,7 +8587,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8611,7 +8608,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8632,7 +8629,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8653,7 +8650,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8674,7 +8671,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8695,7 +8692,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8704,7 +8701,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8713,7 +8710,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8722,7 +8719,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8731,7 +8728,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8740,7 +8737,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8749,7 +8746,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8758,7 +8755,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8767,7 +8764,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8776,7 +8773,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8785,7 +8782,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8794,7 +8791,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8803,7 +8800,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8812,7 +8809,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8821,7 +8818,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8830,7 +8827,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8839,7 +8836,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8848,7 +8845,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8857,7 +8854,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8866,7 +8863,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8875,7 +8872,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8884,7 +8881,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8893,7 +8890,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8902,7 +8899,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8911,7 +8908,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8920,7 +8917,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8929,7 +8926,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8938,7 +8935,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8947,7 +8944,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8956,7 +8953,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FF948-9BDF-478C-8127-F16F57893626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1413,25 +1412,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1443,25 +1442,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K183" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K183" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1768,34 +1767,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111:K113"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1815,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1837,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1859,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1868,7 +1867,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1881,7 +1880,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1898,7 +1897,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1942,7 +1941,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.044</v>
+        <v>12.294</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1952,12 +1951,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.66700000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -1975,7 +1974,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -2021,7 +2020,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -2037,7 +2036,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -2055,7 +2054,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -2101,7 +2100,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -2123,7 +2122,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -2139,7 +2138,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43191</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2179,7 +2178,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43221</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -2217,7 +2216,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43252</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43282</v>
       </c>
@@ -2259,7 +2258,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43313</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43344</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>65</v>
@@ -2329,7 +2328,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43374</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -2371,7 +2370,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>95</v>
@@ -2417,7 +2416,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>101</v>
       </c>
@@ -2435,7 +2434,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2501,7 +2500,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -2543,7 +2542,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -2561,7 +2560,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43647</v>
       </c>
@@ -2583,7 +2582,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43678</v>
       </c>
@@ -2603,7 +2602,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -2623,7 +2622,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -2643,7 +2642,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -2663,7 +2662,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43800</v>
       </c>
@@ -2683,7 +2682,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
         <v>105</v>
       </c>
@@ -2701,7 +2700,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43831</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43862</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43891</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -2795,7 +2794,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>51</v>
@@ -2815,7 +2814,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -2835,7 +2834,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -2855,7 +2854,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>45</v>
@@ -2903,7 +2902,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44044</v>
       </c>
@@ -2923,7 +2922,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44075</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -2969,7 +2968,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -2991,7 +2990,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>46</v>
@@ -3013,7 +3012,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3035,7 +3034,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44105</v>
       </c>
@@ -3055,7 +3054,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44136</v>
       </c>
@@ -3075,7 +3074,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44166</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>44179</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
         <v>110</v>
       </c>
@@ -3119,7 +3118,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44197</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44228</v>
       </c>
@@ -3165,7 +3164,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44256</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>45</v>
@@ -3211,7 +3210,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -3231,7 +3230,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -3271,7 +3270,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>78</v>
@@ -3317,7 +3316,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>73</v>
@@ -3339,7 +3338,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -3361,7 +3360,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>114</v>
@@ -3381,7 +3380,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>116</v>
@@ -3401,7 +3400,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>87</v>
@@ -3423,7 +3422,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3439,7 +3438,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44409</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44440</v>
       </c>
@@ -3479,7 +3478,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44470</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -3525,7 +3524,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3541,7 +3540,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44866</v>
       </c>
@@ -3561,7 +3560,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44896</v>
       </c>
@@ -3581,7 +3580,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="46" t="s">
         <v>119</v>
       </c>
@@ -3599,7 +3598,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44562</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44593</v>
       </c>
@@ -3643,7 +3642,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44621</v>
       </c>
@@ -3663,7 +3662,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44652</v>
       </c>
@@ -3683,7 +3682,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44682</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>75</v>
@@ -3729,7 +3728,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>45</v>
@@ -3751,7 +3750,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44713</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44743</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44774</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -3853,7 +3852,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44805</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44835</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44866</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>44892</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>132</v>
@@ -3953,7 +3952,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44896</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -4003,7 +4002,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
         <v>134</v>
       </c>
@@ -4021,7 +4020,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4067,7 +4066,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>55</v>
@@ -4089,7 +4088,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44958</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44986</v>
       </c>
@@ -4139,37 +4138,51 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45017</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13"/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45047</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="39"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39">
+        <v>1</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="47">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45078</v>
       </c>
@@ -4178,13 +4191,16 @@
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45108</v>
       </c>
@@ -4202,7 +4218,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45139</v>
       </c>
@@ -4220,7 +4236,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45170</v>
       </c>
@@ -4238,7 +4254,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45200</v>
       </c>
@@ -4256,7 +4272,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45231</v>
       </c>
@@ -4274,7 +4290,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45261</v>
       </c>
@@ -4292,7 +4308,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45292</v>
       </c>
@@ -4310,7 +4326,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45323</v>
       </c>
@@ -4328,7 +4344,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45352</v>
       </c>
@@ -4346,7 +4362,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4362,7 +4378,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -4393,10 +4409,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4419,34 +4435,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K183"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="E109" sqref="E109"/>
       <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4467,7 +4483,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4487,7 +4503,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4507,7 +4523,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4515,7 +4531,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4528,7 +4544,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4545,7 +4561,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4604,7 +4620,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>48</v>
       </c>
@@ -4626,7 +4642,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>40863</v>
       </c>
@@ -4646,7 +4662,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>40878</v>
       </c>
@@ -4666,7 +4682,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>47</v>
       </c>
@@ -4684,7 +4700,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>40909</v>
       </c>
@@ -4704,7 +4720,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>40940</v>
       </c>
@@ -4724,7 +4740,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>40969</v>
       </c>
@@ -4744,7 +4760,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>41000</v>
       </c>
@@ -4764,7 +4780,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>41030</v>
       </c>
@@ -4788,7 +4804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -4806,7 +4822,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>41061</v>
       </c>
@@ -4826,7 +4842,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>41091</v>
       </c>
@@ -4850,7 +4866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -4868,7 +4884,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>41122</v>
       </c>
@@ -4890,7 +4906,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>41153</v>
       </c>
@@ -4910,7 +4926,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>41183</v>
       </c>
@@ -4930,7 +4946,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>41214</v>
       </c>
@@ -4954,7 +4970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -4976,7 +4992,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -4996,7 +5012,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -5014,7 +5030,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>41244</v>
       </c>
@@ -5038,7 +5054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -5056,7 +5072,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>57</v>
       </c>
@@ -5074,7 +5090,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>41275</v>
       </c>
@@ -5098,7 +5114,7 @@
         <v>41296</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>58</v>
@@ -5118,7 +5134,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -5136,7 +5152,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>41306</v>
       </c>
@@ -5160,7 +5176,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>59</v>
@@ -5182,7 +5198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -5200,7 +5216,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>41334</v>
       </c>
@@ -5224,7 +5240,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>41365</v>
       </c>
@@ -5248,7 +5264,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -5270,7 +5286,7 @@
         <v>41394</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>63</v>
@@ -5290,7 +5306,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -5308,7 +5324,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>41395</v>
       </c>
@@ -5332,7 +5348,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -5350,7 +5366,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>41426</v>
       </c>
@@ -5370,7 +5386,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>41456</v>
       </c>
@@ -5394,7 +5410,7 @@
         <v>41461</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -5412,7 +5428,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>41487</v>
       </c>
@@ -5432,7 +5448,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>41518</v>
       </c>
@@ -5456,7 +5472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -5474,7 +5490,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>41548</v>
       </c>
@@ -5496,7 +5512,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -5514,7 +5530,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>41579</v>
       </c>
@@ -5538,7 +5554,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>69</v>
@@ -5560,7 +5576,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>41609</v>
       </c>
@@ -5580,7 +5596,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
         <v>71</v>
       </c>
@@ -5598,7 +5614,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>41640</v>
       </c>
@@ -5618,7 +5634,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>41671</v>
       </c>
@@ -5640,7 +5656,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>41699</v>
       </c>
@@ -5658,7 +5674,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>41730</v>
       </c>
@@ -5676,7 +5692,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>41760</v>
       </c>
@@ -5694,7 +5710,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>41791</v>
       </c>
@@ -5712,7 +5728,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>41821</v>
       </c>
@@ -5730,7 +5746,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>41852</v>
       </c>
@@ -5754,7 +5770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5770,7 +5786,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>41883</v>
       </c>
@@ -5794,7 +5810,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>41913</v>
       </c>
@@ -5812,7 +5828,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>41944</v>
       </c>
@@ -5830,7 +5846,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>41974</v>
       </c>
@@ -5848,7 +5864,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
         <v>77</v>
       </c>
@@ -5866,7 +5882,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>42005</v>
       </c>
@@ -5886,7 +5902,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="47"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>42036</v>
       </c>
@@ -5904,7 +5920,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>42064</v>
       </c>
@@ -5922,7 +5938,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>42095</v>
       </c>
@@ -5940,7 +5956,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>42125</v>
       </c>
@@ -5958,7 +5974,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>42156</v>
       </c>
@@ -5976,7 +5992,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>42186</v>
       </c>
@@ -5994,7 +6010,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>42217</v>
       </c>
@@ -6012,7 +6028,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>42248</v>
       </c>
@@ -6030,7 +6046,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>42278</v>
       </c>
@@ -6048,7 +6064,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>42309</v>
       </c>
@@ -6066,7 +6082,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="46" t="s">
         <v>79</v>
       </c>
@@ -6084,7 +6100,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>42370</v>
       </c>
@@ -6102,7 +6118,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>42401</v>
       </c>
@@ -6120,7 +6136,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>42430</v>
       </c>
@@ -6138,7 +6154,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>42461</v>
       </c>
@@ -6156,7 +6172,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>42491</v>
       </c>
@@ -6174,7 +6190,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>42522</v>
       </c>
@@ -6192,7 +6208,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>42552</v>
       </c>
@@ -6216,7 +6232,7 @@
         <v>42553</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6232,7 +6248,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>42583</v>
       </c>
@@ -6250,7 +6266,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>42614</v>
       </c>
@@ -6268,7 +6284,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>42644</v>
       </c>
@@ -6286,7 +6302,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>42675</v>
       </c>
@@ -6304,7 +6320,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>42705</v>
       </c>
@@ -6322,7 +6338,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
         <v>80</v>
       </c>
@@ -6340,7 +6356,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>42736</v>
       </c>
@@ -6364,7 +6380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>42767</v>
       </c>
@@ -6382,7 +6398,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>42795</v>
       </c>
@@ -6400,7 +6416,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>42826</v>
       </c>
@@ -6424,7 +6440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>55</v>
@@ -6446,7 +6462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>42856</v>
       </c>
@@ -6464,7 +6480,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>42887</v>
       </c>
@@ -6482,7 +6498,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>42917</v>
       </c>
@@ -6506,7 +6522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>42948</v>
       </c>
@@ -6524,7 +6540,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>42979</v>
       </c>
@@ -6542,7 +6558,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>43009</v>
       </c>
@@ -6566,7 +6582,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>43040</v>
       </c>
@@ -6584,7 +6600,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>43070</v>
       </c>
@@ -6608,7 +6624,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="46" t="s">
         <v>119</v>
       </c>
@@ -6626,7 +6642,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>44805</v>
       </c>
@@ -6650,7 +6666,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>44896</v>
       </c>
@@ -6674,7 +6690,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>50</v>
@@ -6696,7 +6712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="46" t="s">
         <v>134</v>
       </c>
@@ -6714,7 +6730,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44927</v>
       </c>
@@ -6738,7 +6754,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44958</v>
       </c>
@@ -6760,7 +6776,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>44986</v>
       </c>
@@ -6784,7 +6800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45017</v>
       </c>
@@ -6808,7 +6824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -6824,7 +6840,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -6840,7 +6856,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -6856,7 +6872,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -6872,7 +6888,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -6888,7 +6904,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -6904,7 +6920,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -6920,7 +6936,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -6936,7 +6952,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -6952,7 +6968,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -6968,7 +6984,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -6984,7 +7000,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -7000,7 +7016,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -7016,7 +7032,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -7032,7 +7048,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -7048,7 +7064,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -7064,7 +7080,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -7080,7 +7096,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -7096,7 +7112,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -7112,7 +7128,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -7128,7 +7144,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -7144,7 +7160,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -7160,7 +7176,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -7176,7 +7192,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -7192,7 +7208,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -7208,7 +7224,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -7224,7 +7240,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -7240,7 +7256,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -7256,7 +7272,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -7272,7 +7288,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -7288,7 +7304,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -7304,7 +7320,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -7320,7 +7336,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -7336,7 +7352,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -7352,7 +7368,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -7368,7 +7384,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -7384,7 +7400,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -7400,7 +7416,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -7416,7 +7432,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -7432,7 +7448,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -7448,7 +7464,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -7464,7 +7480,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -7480,7 +7496,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -7496,7 +7512,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -7512,7 +7528,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -7528,7 +7544,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -7544,7 +7560,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -7560,7 +7576,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -7576,7 +7592,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -7592,7 +7608,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -7608,7 +7624,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -7624,7 +7640,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -7640,7 +7656,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7656,7 +7672,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7672,7 +7688,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7688,7 +7704,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7704,7 +7720,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7720,7 +7736,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7736,7 +7752,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7752,7 +7768,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7768,7 +7784,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7784,7 +7800,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7800,7 +7816,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7816,7 +7832,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41"/>
       <c r="B183" s="15"/>
       <c r="C183" s="42"/>
@@ -7834,23 +7850,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7873,28 +7889,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7907,7 +7923,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7936,7 +7952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>11.044</v>
       </c>
@@ -7966,7 +7982,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.5</v>
@@ -7981,10 +7997,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8004,7 +8020,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8030,7 +8046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8056,7 +8072,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8082,7 +8098,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8108,7 +8124,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8134,7 +8150,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8160,7 +8176,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8186,7 +8202,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8212,7 +8228,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8232,7 +8248,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8252,7 +8268,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8272,7 +8288,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8293,7 +8309,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8314,7 +8330,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8335,7 +8351,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8356,7 +8372,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8377,7 +8393,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8398,7 +8414,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8419,7 +8435,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8440,7 +8456,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8461,7 +8477,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8482,7 +8498,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8503,7 +8519,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8524,7 +8540,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8545,7 +8561,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8566,7 +8582,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8587,7 +8603,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8608,7 +8624,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8629,7 +8645,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8650,7 +8666,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8671,7 +8687,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8692,7 +8708,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8701,7 +8717,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8710,7 +8726,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8719,7 +8735,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8728,7 +8744,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8737,7 +8753,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8746,7 +8762,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8755,7 +8771,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8764,7 +8780,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8773,7 +8789,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8782,7 +8798,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8791,7 +8807,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8800,7 +8816,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8809,7 +8825,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8818,7 +8834,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8827,7 +8843,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8836,7 +8852,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8845,7 +8861,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8854,7 +8870,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8863,7 +8879,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8872,7 +8888,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8881,7 +8897,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8890,7 +8906,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8899,7 +8915,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8908,7 +8924,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8917,7 +8933,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8926,7 +8942,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8935,7 +8951,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8944,7 +8960,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8953,7 +8969,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
   <si>
     <t>PERIOD</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>5/12,15/2023</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1415,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1771,12 +1774,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K124"/>
+  <dimension ref="A2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1944,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.294</v>
+        <v>11.294</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1951,7 +1954,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.91700000000000004</v>
+        <v>-8.2999999999999963E-2</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4183,26 +4186,32 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B113" s="20"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
+      <c r="D113" s="39">
+        <v>1</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="47" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4220,7 +4229,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4238,7 +4247,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4256,7 +4265,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4274,7 +4283,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4292,7 +4301,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4310,7 +4319,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4328,7 +4337,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4346,7 +4355,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4363,7 +4372,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45352</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -4379,20 +4390,36 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="43"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="15"/>
+      <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H124" s="43"/>
+      <c r="H124" s="39"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="15"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="43"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7850,17 +7877,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
   <si>
     <t>PERIOD</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>5/12,15/2023</t>
+  </si>
+  <si>
+    <t>SVL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1782,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4469,9 +4472,9 @@
   <dimension ref="A2:K183"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="E109" sqref="E109"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomLeft" activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,7 +4635,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.6879999999999988</v>
+        <v>7.6879999999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6852,10 +6855,16 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="20"/>
+      <c r="A120" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
+      <c r="D120" s="39">
+        <v>1</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
       <c r="G120" s="13" t="str">
@@ -6865,7 +6874,9 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="47">
+        <v>45090</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
@@ -7877,17 +7888,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D69CB9-5489-4933-856A-8AA155BE05AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
   <si>
     <t>PERIOD</t>
   </si>
@@ -476,7 +477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -906,6 +907,27 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -959,27 +981,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1401,7 +1402,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1418,25 +1419,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1448,25 +1449,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K183" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K187" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="0">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="3">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1773,34 +1774,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K125"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A108" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +1822,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1843,7 +1844,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1866,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1873,7 +1874,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1886,7 +1887,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1903,7 +1904,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1947,7 +1948,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.294</v>
+        <v>19.544</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1957,12 +1958,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>-8.2999999999999963E-2</v>
+        <v>0.16700000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -1980,7 +1981,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -2026,7 +2027,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -2042,7 +2043,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -2060,7 +2061,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -2106,7 +2107,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -2128,7 +2129,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -2144,7 +2145,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43191</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2184,7 +2185,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43221</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -2222,7 +2223,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43252</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43282</v>
       </c>
@@ -2264,7 +2265,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43313</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43344</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>65</v>
@@ -2334,7 +2335,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43374</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>95</v>
@@ -2422,7 +2423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>101</v>
       </c>
@@ -2440,7 +2441,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2506,7 +2507,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -2548,7 +2549,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -2566,7 +2567,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43647</v>
       </c>
@@ -2588,7 +2589,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43678</v>
       </c>
@@ -2608,7 +2609,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -2628,7 +2629,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -2648,7 +2649,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -2668,7 +2669,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43800</v>
       </c>
@@ -2688,7 +2689,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
         <v>105</v>
       </c>
@@ -2706,7 +2707,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43831</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43862</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43891</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -2800,7 +2801,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>51</v>
@@ -2820,7 +2821,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -2840,7 +2841,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -2860,7 +2861,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>45</v>
@@ -2908,7 +2909,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44044</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44075</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -2974,7 +2975,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -2996,53 +2997,51 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="39">
-        <v>1</v>
-      </c>
+      <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="39"/>
+      <c r="H59" s="39">
+        <v>1</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="47">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="13"/>
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H60" s="39">
-        <v>1</v>
-      </c>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="47">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -3060,11 +3059,13 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B62" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
@@ -3075,62 +3076,64 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H62" s="39"/>
+      <c r="H62" s="39">
+        <v>1</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K62" s="47">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H63" s="39">
-        <v>1</v>
-      </c>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="47">
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H64" s="39"/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="39">
+        <v>1</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="47">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>44197</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>44228</v>
+      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
@@ -3141,20 +3144,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H65" s="39">
-        <v>1</v>
-      </c>
+      <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="47">
-        <v>44207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>44256</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
@@ -3168,57 +3169,55 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
-        <v>44256</v>
-      </c>
+      <c r="K66" s="47">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H67" s="39"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39">
+        <v>1</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="47">
-        <v>44260</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="39">
-        <v>1</v>
-      </c>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="47">
-        <v>44254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -3236,9 +3235,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -3256,11 +3255,13 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44348</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>44378</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
@@ -3274,36 +3275,36 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>44378</v>
-      </c>
+      <c r="K71" s="47">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="39">
+        <v>5</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="47">
-        <v>44379</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39">
@@ -3319,35 +3320,35 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="39">
-        <v>5</v>
-      </c>
+      <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H74" s="39"/>
+      <c r="H74" s="39">
+        <v>7</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -3358,18 +3359,16 @@
         <v/>
       </c>
       <c r="H75" s="39">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -3379,124 +3378,124 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="39">
-        <v>12</v>
-      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="13"/>
+      <c r="K76" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39">
-        <v>6</v>
-      </c>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="39">
+        <v>6</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="39"/>
+      <c r="K79" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
+      <c r="B80" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39">
+        <v>6</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>44440</v>
-      </c>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>44470</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>87</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39">
-        <v>6</v>
-      </c>
+      <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -3506,32 +3505,32 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39">
-        <v>6</v>
-      </c>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -3546,11 +3545,13 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B85" s="20"/>
+        <v>44562</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -3564,11 +3565,13 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>44896</v>
+        <v>44593</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -3586,31 +3589,31 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
-        <v>119</v>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>44621</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>44562</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>120</v>
-      </c>
+        <v>44652</v>
+      </c>
+      <c r="B88" s="20"/>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
@@ -3624,15 +3627,15 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B89" s="20"/>
+        <v>44682</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
@@ -3646,106 +3649,124 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K89" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="39"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39">
+        <v>3</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K90" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H91" s="39"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="47">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>5</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H92" s="39"/>
+      <c r="H92" s="39">
+        <v>7</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="K92" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>44743</v>
+      </c>
       <c r="B93" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="K93" s="47">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>44774</v>
+      </c>
       <c r="B94" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39">
         <v>1</v>
@@ -3753,43 +3774,37 @@
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="47">
-        <v>44741</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>44713</v>
-      </c>
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D95" s="39">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H95" s="39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="47">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -3802,17 +3817,17 @@
         <v>1.25</v>
       </c>
       <c r="H96" s="39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="47">
-        <v>44762</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>45</v>
@@ -3833,21 +3848,25 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="47">
-        <v>44788</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>44866</v>
+      </c>
       <c r="B98" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39">
         <v>1</v>
@@ -3855,46 +3874,44 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="47">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>44805</v>
-      </c>
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D99" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="39">
+        <v>2</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H99" s="39">
-        <v>6</v>
-      </c>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
       </c>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>3</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
@@ -3906,26 +3923,22 @@
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="47">
-        <v>44859</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>44866</v>
-      </c>
+      <c r="K100" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C101" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H101" s="39">
         <v>1</v>
@@ -3933,18 +3946,16 @@
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="47">
-        <v>44892</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="20" t="s">
-        <v>132</v>
-      </c>
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="20"/>
       <c r="C102" s="13"/>
-      <c r="D102" s="39">
-        <v>2</v>
-      </c>
+      <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
@@ -3954,39 +3965,33 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
       </c>
-      <c r="D103" s="39">
-        <v>3</v>
-      </c>
+      <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H103" s="39">
-        <v>1</v>
-      </c>
+      <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="47">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -4005,14 +4010,14 @@
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="47">
-        <v>44924</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" s="20"/>
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
+      <c r="B105" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
@@ -4021,14 +4026,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="39"/>
+      <c r="H105" s="39">
+        <v>2</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>51</v>
@@ -4047,21 +4056,25 @@
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="47">
-        <v>44931</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>44986</v>
+      </c>
       <c r="B107" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39">
         <v>1</v>
@@ -4069,37 +4082,35 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="47">
-        <v>44938</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" s="13"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39">
-        <v>2</v>
-      </c>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="47"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -4111,66 +4122,66 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="47">
-        <v>44972</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>44986</v>
-      </c>
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C110" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D110" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39">
+        <v>1</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H110" s="39">
         <v>1</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="47">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H111" s="39"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39">
+        <v>1</v>
+      </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="47"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>45108</v>
+      </c>
+      <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
@@ -4179,42 +4190,32 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H112" s="39">
-        <v>1</v>
-      </c>
+      <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="47">
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B113" s="20"/>
       <c r="C113" s="13"/>
-      <c r="D113" s="39">
-        <v>1</v>
-      </c>
+      <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="39">
-        <v>1</v>
-      </c>
+      <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="20"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4230,9 +4231,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4248,9 +4249,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4266,9 +4267,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4284,9 +4285,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45200</v>
+        <v>45292</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4302,9 +4303,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45231</v>
+        <v>45323</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4320,9 +4321,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45261</v>
+        <v>45352</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4338,10 +4339,8 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>45292</v>
-      </c>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -4356,73 +4355,21 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="41"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="43"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="20"/>
+      <c r="F122" s="15"/>
       <c r="G122" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H122" s="39"/>
+      <c r="H122" s="43"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="43"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="15"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4439,10 +4386,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4465,34 +4412,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K183"/>
+  <dimension ref="A2:K187"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
-      <selection activeCell="E109" sqref="E109"/>
-      <selection pane="bottomLeft" activeCell="K121" sqref="K121"/>
+      <pane ySplit="3696" topLeftCell="A106" activePane="bottomLeft"/>
+      <selection activeCell="F106" sqref="F106:G106"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4513,7 +4460,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4533,7 +4480,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4553,7 +4500,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4561,7 +4508,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4574,7 +4521,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4591,7 +4538,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4626,7 +4573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4635,7 +4582,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.6879999999999988</v>
+        <v>0.68799999999999883</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4650,7 +4597,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>48</v>
       </c>
@@ -4672,7 +4619,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>40863</v>
       </c>
@@ -4692,7 +4639,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>40878</v>
       </c>
@@ -4712,7 +4659,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>47</v>
       </c>
@@ -4730,7 +4677,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>40909</v>
       </c>
@@ -4750,7 +4697,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>40940</v>
       </c>
@@ -4770,7 +4717,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>40969</v>
       </c>
@@ -4790,7 +4737,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>41000</v>
       </c>
@@ -4810,7 +4757,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>41030</v>
       </c>
@@ -4834,7 +4781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -4852,7 +4799,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>41061</v>
       </c>
@@ -4872,7 +4819,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>41091</v>
       </c>
@@ -4896,7 +4843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -4914,7 +4861,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>41122</v>
       </c>
@@ -4936,7 +4883,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>41153</v>
       </c>
@@ -4956,7 +4903,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>41183</v>
       </c>
@@ -4976,7 +4923,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>41214</v>
       </c>
@@ -5000,7 +4947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -5022,7 +4969,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -5042,7 +4989,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -5060,7 +5007,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>41244</v>
       </c>
@@ -5084,7 +5031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -5102,7 +5049,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>57</v>
       </c>
@@ -5120,7 +5067,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>41275</v>
       </c>
@@ -5144,7 +5091,7 @@
         <v>41296</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>58</v>
@@ -5164,7 +5111,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -5182,7 +5129,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>41306</v>
       </c>
@@ -5206,7 +5153,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>59</v>
@@ -5228,7 +5175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -5246,7 +5193,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>41334</v>
       </c>
@@ -5270,7 +5217,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>41365</v>
       </c>
@@ -5294,7 +5241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -5316,7 +5263,7 @@
         <v>41394</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>63</v>
@@ -5336,7 +5283,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -5354,7 +5301,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>41395</v>
       </c>
@@ -5378,7 +5325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -5396,7 +5343,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>41426</v>
       </c>
@@ -5416,7 +5363,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>41456</v>
       </c>
@@ -5440,7 +5387,7 @@
         <v>41461</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -5458,7 +5405,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>41487</v>
       </c>
@@ -5478,7 +5425,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>41518</v>
       </c>
@@ -5502,7 +5449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -5520,7 +5467,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>41548</v>
       </c>
@@ -5542,7 +5489,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -5560,7 +5507,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>41579</v>
       </c>
@@ -5584,7 +5531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>69</v>
@@ -5606,7 +5553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>41609</v>
       </c>
@@ -5626,7 +5573,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
         <v>71</v>
       </c>
@@ -5644,7 +5591,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>41640</v>
       </c>
@@ -5664,7 +5611,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>41671</v>
       </c>
@@ -5686,7 +5633,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>41699</v>
       </c>
@@ -5704,7 +5651,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>41730</v>
       </c>
@@ -5722,7 +5669,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>41760</v>
       </c>
@@ -5740,7 +5687,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>41791</v>
       </c>
@@ -5758,7 +5705,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>41821</v>
       </c>
@@ -5776,7 +5723,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>41852</v>
       </c>
@@ -5800,7 +5747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5816,7 +5763,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>41883</v>
       </c>
@@ -5840,7 +5787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>41913</v>
       </c>
@@ -5858,7 +5805,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>41944</v>
       </c>
@@ -5876,7 +5823,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>41974</v>
       </c>
@@ -5894,7 +5841,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
         <v>77</v>
       </c>
@@ -5912,7 +5859,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>42005</v>
       </c>
@@ -5932,7 +5879,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="47"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>42036</v>
       </c>
@@ -5950,7 +5897,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>42064</v>
       </c>
@@ -5968,7 +5915,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>42095</v>
       </c>
@@ -5986,7 +5933,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>42125</v>
       </c>
@@ -6004,7 +5951,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>42156</v>
       </c>
@@ -6022,7 +5969,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>42186</v>
       </c>
@@ -6040,7 +5987,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>42217</v>
       </c>
@@ -6058,7 +6005,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>42248</v>
       </c>
@@ -6076,7 +6023,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>42278</v>
       </c>
@@ -6094,7 +6041,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>42309</v>
       </c>
@@ -6112,7 +6059,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="46" t="s">
         <v>79</v>
       </c>
@@ -6130,7 +6077,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>42370</v>
       </c>
@@ -6148,7 +6095,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>42401</v>
       </c>
@@ -6166,7 +6113,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>42430</v>
       </c>
@@ -6184,7 +6131,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>42461</v>
       </c>
@@ -6202,7 +6149,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>42491</v>
       </c>
@@ -6220,7 +6167,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>42522</v>
       </c>
@@ -6238,7 +6185,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>42552</v>
       </c>
@@ -6262,7 +6209,7 @@
         <v>42553</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6278,7 +6225,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>42583</v>
       </c>
@@ -6296,7 +6243,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>42614</v>
       </c>
@@ -6314,7 +6261,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>42644</v>
       </c>
@@ -6332,7 +6279,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>42675</v>
       </c>
@@ -6350,7 +6297,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>42705</v>
       </c>
@@ -6368,7 +6315,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="46" t="s">
         <v>80</v>
       </c>
@@ -6386,7 +6333,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>42736</v>
       </c>
@@ -6410,7 +6357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>42767</v>
       </c>
@@ -6428,7 +6375,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>42795</v>
       </c>
@@ -6446,7 +6393,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>42826</v>
       </c>
@@ -6470,7 +6417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>55</v>
@@ -6492,7 +6439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>42856</v>
       </c>
@@ -6510,7 +6457,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>42887</v>
       </c>
@@ -6528,7 +6475,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>42917</v>
       </c>
@@ -6552,7 +6499,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>42948</v>
       </c>
@@ -6570,7 +6517,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>42979</v>
       </c>
@@ -6588,7 +6535,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>43009</v>
       </c>
@@ -6612,7 +6559,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>43040</v>
       </c>
@@ -6630,7 +6577,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>43070</v>
       </c>
@@ -6654,9 +6601,9 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="46" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6672,16 +6619,14 @@
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>44805</v>
-      </c>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="46"/>
       <c r="B112" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="20"/>
@@ -6692,21 +6637,17 @@
       <c r="H112" s="39"/>
       <c r="I112" s="13"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="K112" s="47">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="20"/>
       <c r="C113" s="13"/>
-      <c r="D113" s="39">
-        <v>1</v>
-      </c>
+      <c r="D113" s="39"/>
       <c r="E113" s="13"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
@@ -6716,18 +6657,16 @@
       <c r="H113" s="39"/>
       <c r="I113" s="13"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="47">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="K113" s="47"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="20"/>
@@ -6738,31 +6677,31 @@
       <c r="H114" s="39"/>
       <c r="I114" s="13"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="46" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="13"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H115" s="39"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="47"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>44927</v>
+        <v>44805</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>49</v>
@@ -6771,76 +6710,72 @@
       <c r="D116" s="39">
         <v>3</v>
       </c>
-      <c r="E116" s="9"/>
+      <c r="E116" s="13"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H116" s="39"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="9"/>
+      <c r="D117" s="39">
+        <v>1</v>
+      </c>
+      <c r="E117" s="13"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H117" s="39"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="13"/>
       <c r="J117" s="11"/>
       <c r="K117" s="47">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>44986</v>
-      </c>
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="39">
-        <v>1</v>
-      </c>
-      <c r="E118" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="E118" s="13"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H118" s="39"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="K118" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" s="20"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="39">
-        <v>2</v>
-      </c>
+      <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -6850,20 +6785,18 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45078</v>
+        <v>44927</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
@@ -6874,13 +6807,17 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="47">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="20"/>
+      <c r="K120" s="47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
@@ -6892,13 +6829,21 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="20"/>
+      <c r="K121" s="47">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
+      <c r="D122" s="39">
+        <v>1</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
@@ -6908,13 +6853,21 @@
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
+      <c r="K122" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
+      <c r="D123" s="39">
+        <v>2</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -6924,13 +6877,21 @@
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
+      <c r="K123" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
+      <c r="D124" s="39">
+        <v>1</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -6940,9 +6901,11 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="47">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -6958,7 +6921,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -6974,7 +6937,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -6990,7 +6953,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7006,7 +6969,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7022,7 +6985,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -7038,7 +7001,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -7054,7 +7017,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -7070,7 +7033,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -7086,7 +7049,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -7102,7 +7065,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -7118,7 +7081,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -7134,7 +7097,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -7150,7 +7113,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -7166,7 +7129,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -7182,7 +7145,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -7198,7 +7161,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -7214,7 +7177,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -7230,7 +7193,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -7246,7 +7209,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -7262,7 +7225,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -7278,7 +7241,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -7294,7 +7257,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -7310,7 +7273,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -7326,7 +7289,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -7342,7 +7305,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -7358,7 +7321,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -7374,7 +7337,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -7390,7 +7353,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -7406,7 +7369,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -7422,7 +7385,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -7438,7 +7401,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -7454,7 +7417,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -7470,7 +7433,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -7486,7 +7449,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -7502,7 +7465,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -7518,7 +7481,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -7534,7 +7497,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -7550,7 +7513,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -7566,7 +7529,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -7582,7 +7545,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -7598,7 +7561,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -7614,7 +7577,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -7630,7 +7593,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -7646,7 +7609,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -7662,7 +7625,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -7678,7 +7641,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -7694,7 +7657,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7710,7 +7673,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7726,7 +7689,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7742,7 +7705,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7758,7 +7721,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7774,7 +7737,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7790,7 +7753,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7806,7 +7769,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7822,7 +7785,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7838,7 +7801,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7854,7 +7817,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7870,41 +7833,105 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="41"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="43"/>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="40"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="39"/>
       <c r="E183" s="9"/>
-      <c r="F183" s="15"/>
+      <c r="F183" s="20"/>
       <c r="G183" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H183" s="43"/>
+      <c r="H183" s="39"/>
       <c r="I183" s="9"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="15"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="20"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="40"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H184" s="39"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="40"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H185" s="39"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="40"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="39"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="20"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="41"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="43"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H187" s="43"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7927,28 +7954,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7961,7 +7988,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7990,7 +8017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>11.044</v>
       </c>
@@ -8020,7 +8047,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.5</v>
@@ -8035,10 +8062,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8058,7 +8085,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8084,7 +8111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8110,7 +8137,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8136,7 +8163,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8162,7 +8189,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8188,7 +8215,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8214,7 +8241,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8240,7 +8267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8266,7 +8293,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8286,7 +8313,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8306,7 +8333,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8326,7 +8353,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8347,7 +8374,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8368,7 +8395,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8389,7 +8416,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8410,7 +8437,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8431,7 +8458,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8452,7 +8479,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8473,7 +8500,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8494,7 +8521,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8515,7 +8542,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8536,7 +8563,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8557,7 +8584,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8578,7 +8605,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8599,7 +8626,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8620,7 +8647,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8641,7 +8668,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8662,7 +8689,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8683,7 +8710,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8704,7 +8731,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8725,7 +8752,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8746,7 +8773,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8755,7 +8782,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8764,7 +8791,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8773,7 +8800,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8782,7 +8809,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8791,7 +8818,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8800,7 +8827,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8809,7 +8836,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8818,7 +8845,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8827,7 +8854,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8836,7 +8863,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8845,7 +8872,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8854,7 +8881,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8863,7 +8890,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8872,7 +8899,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8881,7 +8908,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8890,7 +8917,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8899,7 +8926,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8908,7 +8935,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8917,7 +8944,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8926,7 +8953,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8935,7 +8962,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8944,7 +8971,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8953,7 +8980,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8962,7 +8989,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8971,7 +8998,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8980,7 +9007,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8989,7 +9016,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8998,7 +9025,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9007,7 +9034,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D69CB9-5489-4933-856A-8AA155BE05AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED8A67-5A88-49C2-AB50-ECC7A63D9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
   <si>
     <t>PERIOD</t>
   </si>
@@ -907,27 +907,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -981,6 +960,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1459,15 +1459,15 @@
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1781,9 +1781,9 @@
   <dimension ref="A2:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A108" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A111" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1948,7 +1948,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.544</v>
+        <v>19.794</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1958,7 +1958,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.16700000000000004</v>
+        <v>1.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4162,13 +4162,15 @@
       <c r="B111" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39">
         <v>1</v>
@@ -4181,9 +4183,13 @@
       <c r="A112" s="40">
         <v>45108</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
+      <c r="D112" s="39">
+        <v>1</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
@@ -4193,7 +4199,9 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="47">
+        <v>45116</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
@@ -7915,17 +7923,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED8A67-5A88-49C2-AB50-ECC7A63D9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="146">
   <si>
     <t>PERIOD</t>
   </si>
@@ -472,12 +471,25 @@
   </si>
   <si>
     <t>SVL(1-0-0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1402,7 +1414,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1419,25 +1431,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1449,25 +1461,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K187" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K187" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1774,34 +1786,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K122"/>
+  <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A111" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A102" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1834,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1856,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1866,7 +1878,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1874,7 +1886,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1887,7 +1899,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1904,7 +1916,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1958,12 +1970,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>1.417</v>
+        <v>0.41700000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -1981,7 +1993,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -2027,7 +2039,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -2043,7 +2055,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -2061,7 +2073,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -2107,7 +2119,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -2129,7 +2141,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -2145,7 +2157,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43191</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2185,7 +2197,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43221</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -2223,7 +2235,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43252</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43282</v>
       </c>
@@ -2265,7 +2277,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43313</v>
       </c>
@@ -2289,7 +2301,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43344</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>65</v>
@@ -2335,7 +2347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43374</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -2377,7 +2389,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2401,7 +2413,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>95</v>
@@ -2423,7 +2435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>101</v>
       </c>
@@ -2441,7 +2453,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2489,7 +2501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2507,7 +2519,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -2549,7 +2561,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -2567,7 +2579,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43647</v>
       </c>
@@ -2589,7 +2601,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43678</v>
       </c>
@@ -2609,7 +2621,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -2629,7 +2641,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -2649,7 +2661,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -2669,7 +2681,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43800</v>
       </c>
@@ -2689,7 +2701,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
         <v>105</v>
       </c>
@@ -2707,7 +2719,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43831</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43862</v>
       </c>
@@ -2755,7 +2767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43891</v>
       </c>
@@ -2779,7 +2791,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -2801,7 +2813,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>51</v>
@@ -2821,7 +2833,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -2841,7 +2853,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -2861,7 +2873,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>45</v>
@@ -2909,7 +2921,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44044</v>
       </c>
@@ -2929,7 +2941,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44075</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -2975,7 +2987,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -2997,7 +3009,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>45</v>
@@ -3019,7 +3031,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44105</v>
       </c>
@@ -3039,7 +3051,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44136</v>
       </c>
@@ -3059,7 +3071,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44166</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>44179</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
         <v>110</v>
       </c>
@@ -3103,7 +3115,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44197</v>
       </c>
@@ -3129,7 +3141,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44228</v>
       </c>
@@ -3149,7 +3161,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44256</v>
       </c>
@@ -3173,7 +3185,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>45</v>
@@ -3195,7 +3207,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44287</v>
       </c>
@@ -3215,7 +3227,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44317</v>
       </c>
@@ -3235,7 +3247,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44348</v>
       </c>
@@ -3255,7 +3267,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44378</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>78</v>
@@ -3301,7 +3313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>73</v>
@@ -3323,7 +3335,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>65</v>
@@ -3345,7 +3357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>114</v>
@@ -3365,7 +3377,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>116</v>
@@ -3385,7 +3397,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44409</v>
       </c>
@@ -3405,7 +3417,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44440</v>
       </c>
@@ -3425,7 +3437,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44470</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>87</v>
@@ -3471,7 +3483,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3487,7 +3499,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44866</v>
       </c>
@@ -3507,7 +3519,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44896</v>
       </c>
@@ -3527,7 +3539,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="46" t="s">
         <v>119</v>
       </c>
@@ -3545,7 +3557,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44562</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44593</v>
       </c>
@@ -3589,7 +3601,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44621</v>
       </c>
@@ -3609,7 +3621,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44652</v>
       </c>
@@ -3629,7 +3641,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44682</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>75</v>
@@ -3675,7 +3687,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>45</v>
@@ -3697,7 +3709,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44713</v>
       </c>
@@ -3725,7 +3737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44743</v>
       </c>
@@ -3751,7 +3763,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44774</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>45</v>
@@ -3799,7 +3811,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44805</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44835</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44866</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>44892</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>132</v>
@@ -3899,7 +3911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44896</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>45</v>
@@ -3949,7 +3961,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>134</v>
       </c>
@@ -3967,7 +3979,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44927</v>
       </c>
@@ -3991,7 +4003,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -4013,7 +4025,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>55</v>
@@ -4035,7 +4047,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44958</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44986</v>
       </c>
@@ -4085,7 +4097,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45017</v>
       </c>
@@ -4105,7 +4117,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="47"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45047</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>132</v>
@@ -4155,7 +4167,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45078</v>
       </c>
@@ -4179,7 +4191,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45108</v>
       </c>
@@ -4203,11 +4215,11 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B113" s="20"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
@@ -4216,14 +4228,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="47">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4239,9 +4255,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4257,9 +4273,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4275,9 +4291,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4293,9 +4309,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4311,9 +4327,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40">
-        <v>45323</v>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4329,9 +4345,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4347,8 +4363,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
+        <v>45323</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -4363,21 +4381,55 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="41"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="43"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="15"/>
+      <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H122" s="43"/>
+      <c r="H122" s="39"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="15"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="40"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="41"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="43"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4394,10 +4446,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4420,34 +4472,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A106" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="F106" sqref="F106:G106"/>
       <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4520,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4488,7 +4540,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4508,7 +4560,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4516,7 +4568,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4529,7 +4581,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4546,7 +4598,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4581,7 +4633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4605,7 +4657,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>48</v>
       </c>
@@ -4627,7 +4679,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>40863</v>
       </c>
@@ -4647,7 +4699,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>40878</v>
       </c>
@@ -4667,7 +4719,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>47</v>
       </c>
@@ -4685,7 +4737,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>40909</v>
       </c>
@@ -4705,7 +4757,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>40940</v>
       </c>
@@ -4725,7 +4777,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>40969</v>
       </c>
@@ -4745,7 +4797,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>41000</v>
       </c>
@@ -4765,7 +4817,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>41030</v>
       </c>
@@ -4789,7 +4841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -4807,7 +4859,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>41061</v>
       </c>
@@ -4827,7 +4879,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>41091</v>
       </c>
@@ -4851,7 +4903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -4869,7 +4921,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>41122</v>
       </c>
@@ -4891,7 +4943,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>41153</v>
       </c>
@@ -4911,7 +4963,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>41183</v>
       </c>
@@ -4931,7 +4983,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>41214</v>
       </c>
@@ -4955,7 +5007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -4977,7 +5029,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -4997,7 +5049,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -5015,7 +5067,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>41244</v>
       </c>
@@ -5039,7 +5091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -5057,7 +5109,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>57</v>
       </c>
@@ -5075,7 +5127,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>41275</v>
       </c>
@@ -5099,7 +5151,7 @@
         <v>41296</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>58</v>
@@ -5119,7 +5171,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -5137,7 +5189,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>41306</v>
       </c>
@@ -5161,7 +5213,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>59</v>
@@ -5183,7 +5235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -5201,7 +5253,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>41334</v>
       </c>
@@ -5225,7 +5277,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>41365</v>
       </c>
@@ -5249,7 +5301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -5271,7 +5323,7 @@
         <v>41394</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>63</v>
@@ -5291,7 +5343,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -5309,7 +5361,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>41395</v>
       </c>
@@ -5333,7 +5385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -5351,7 +5403,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>41426</v>
       </c>
@@ -5371,7 +5423,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>41456</v>
       </c>
@@ -5395,7 +5447,7 @@
         <v>41461</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -5413,7 +5465,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>41487</v>
       </c>
@@ -5433,7 +5485,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>41518</v>
       </c>
@@ -5457,7 +5509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -5475,7 +5527,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>41548</v>
       </c>
@@ -5497,7 +5549,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -5515,7 +5567,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>41579</v>
       </c>
@@ -5539,7 +5591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>69</v>
@@ -5561,7 +5613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>41609</v>
       </c>
@@ -5581,7 +5633,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
         <v>71</v>
       </c>
@@ -5599,7 +5651,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>41640</v>
       </c>
@@ -5619,7 +5671,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>41671</v>
       </c>
@@ -5641,7 +5693,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>41699</v>
       </c>
@@ -5659,7 +5711,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>41730</v>
       </c>
@@ -5677,7 +5729,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>41760</v>
       </c>
@@ -5695,7 +5747,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>41791</v>
       </c>
@@ -5713,7 +5765,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>41821</v>
       </c>
@@ -5731,7 +5783,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>41852</v>
       </c>
@@ -5755,7 +5807,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5771,7 +5823,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>41883</v>
       </c>
@@ -5795,7 +5847,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>41913</v>
       </c>
@@ -5813,7 +5865,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>41944</v>
       </c>
@@ -5831,7 +5883,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>41974</v>
       </c>
@@ -5849,7 +5901,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
         <v>77</v>
       </c>
@@ -5867,7 +5919,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>42005</v>
       </c>
@@ -5887,7 +5939,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="47"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>42036</v>
       </c>
@@ -5905,7 +5957,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>42064</v>
       </c>
@@ -5923,7 +5975,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>42095</v>
       </c>
@@ -5941,7 +5993,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>42125</v>
       </c>
@@ -5959,7 +6011,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>42156</v>
       </c>
@@ -5977,7 +6029,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>42186</v>
       </c>
@@ -5995,7 +6047,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>42217</v>
       </c>
@@ -6013,7 +6065,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>42248</v>
       </c>
@@ -6031,7 +6083,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>42278</v>
       </c>
@@ -6049,7 +6101,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>42309</v>
       </c>
@@ -6067,7 +6119,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="46" t="s">
         <v>79</v>
       </c>
@@ -6085,7 +6137,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>42370</v>
       </c>
@@ -6103,7 +6155,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>42401</v>
       </c>
@@ -6121,7 +6173,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>42430</v>
       </c>
@@ -6139,7 +6191,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>42461</v>
       </c>
@@ -6157,7 +6209,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>42491</v>
       </c>
@@ -6175,7 +6227,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>42522</v>
       </c>
@@ -6193,7 +6245,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>42552</v>
       </c>
@@ -6217,7 +6269,7 @@
         <v>42553</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6233,7 +6285,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>42583</v>
       </c>
@@ -6251,7 +6303,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>42614</v>
       </c>
@@ -6269,7 +6321,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>42644</v>
       </c>
@@ -6287,7 +6339,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>42675</v>
       </c>
@@ -6305,7 +6357,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>42705</v>
       </c>
@@ -6323,7 +6375,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
         <v>80</v>
       </c>
@@ -6341,7 +6393,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>42736</v>
       </c>
@@ -6365,7 +6417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>42767</v>
       </c>
@@ -6383,7 +6435,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>42795</v>
       </c>
@@ -6401,7 +6453,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>42826</v>
       </c>
@@ -6425,7 +6477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>55</v>
@@ -6447,7 +6499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>42856</v>
       </c>
@@ -6465,7 +6517,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>42887</v>
       </c>
@@ -6483,7 +6535,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>42917</v>
       </c>
@@ -6507,7 +6559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>42948</v>
       </c>
@@ -6525,7 +6577,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>42979</v>
       </c>
@@ -6543,7 +6595,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>43009</v>
       </c>
@@ -6567,7 +6619,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>43040</v>
       </c>
@@ -6585,7 +6637,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>43070</v>
       </c>
@@ -6609,7 +6661,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="46" t="s">
         <v>105</v>
       </c>
@@ -6627,7 +6679,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="47"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="46"/>
       <c r="B112" s="20" t="s">
         <v>46</v>
@@ -6649,7 +6701,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="46" t="s">
         <v>110</v>
       </c>
@@ -6667,7 +6719,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="47"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>87</v>
@@ -6689,7 +6741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="46" t="s">
         <v>119</v>
       </c>
@@ -6707,7 +6759,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="47"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44805</v>
       </c>
@@ -6731,7 +6783,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44896</v>
       </c>
@@ -6755,7 +6807,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>50</v>
@@ -6777,7 +6829,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="46" t="s">
         <v>134</v>
       </c>
@@ -6795,7 +6847,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>44927</v>
       </c>
@@ -6819,7 +6871,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>44958</v>
       </c>
@@ -6841,7 +6893,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>44986</v>
       </c>
@@ -6865,7 +6917,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45017</v>
       </c>
@@ -6889,7 +6941,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45078</v>
       </c>
@@ -6913,7 +6965,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -6929,7 +6981,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -6945,7 +6997,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -6961,7 +7013,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -6977,7 +7029,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -6993,7 +7045,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -7009,7 +7061,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -7025,7 +7077,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -7041,7 +7093,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -7057,7 +7109,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -7073,7 +7125,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -7089,7 +7141,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -7105,7 +7157,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -7121,7 +7173,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -7137,7 +7189,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -7153,7 +7205,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -7169,7 +7221,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -7185,7 +7237,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -7201,7 +7253,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -7217,7 +7269,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -7233,7 +7285,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -7249,7 +7301,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -7265,7 +7317,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -7281,7 +7333,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -7297,7 +7349,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -7313,7 +7365,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -7329,7 +7381,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -7345,7 +7397,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -7361,7 +7413,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -7377,7 +7429,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -7393,7 +7445,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -7409,7 +7461,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -7425,7 +7477,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -7441,7 +7493,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -7457,7 +7509,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -7473,7 +7525,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -7489,7 +7541,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -7505,7 +7557,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -7521,7 +7573,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -7537,7 +7589,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -7553,7 +7605,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -7569,7 +7621,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -7585,7 +7637,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -7601,7 +7653,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -7617,7 +7669,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -7633,7 +7685,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -7649,7 +7701,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -7665,7 +7717,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7681,7 +7733,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7697,7 +7749,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7713,7 +7765,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7729,7 +7781,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7745,7 +7797,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7761,7 +7813,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7777,7 +7829,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7793,7 +7845,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7809,7 +7861,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7825,7 +7877,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7841,7 +7893,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7857,7 +7909,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7873,7 +7925,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7889,7 +7941,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7905,7 +7957,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41"/>
       <c r="B187" s="15"/>
       <c r="C187" s="42"/>
@@ -7923,23 +7975,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7962,28 +8014,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7996,7 +8048,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8025,7 +8077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>11.044</v>
       </c>
@@ -8055,7 +8107,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.5</v>
@@ -8070,10 +8122,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8093,7 +8145,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8119,7 +8171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8145,7 +8197,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8171,7 +8223,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8197,7 +8249,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8223,7 +8275,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8249,7 +8301,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8275,7 +8327,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8301,7 +8353,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8321,7 +8373,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8341,7 +8393,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8361,7 +8413,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8382,7 +8434,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8403,7 +8455,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8424,7 +8476,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8445,7 +8497,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8466,7 +8518,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8487,7 +8539,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8508,7 +8560,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8529,7 +8581,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8550,7 +8602,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8571,7 +8623,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8592,7 +8644,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8613,7 +8665,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8634,7 +8686,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8655,7 +8707,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8676,7 +8728,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8697,7 +8749,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8718,7 +8770,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8739,7 +8791,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8760,7 +8812,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8781,7 +8833,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8790,7 +8842,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8799,7 +8851,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8808,7 +8860,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8817,7 +8869,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8826,7 +8878,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8835,7 +8887,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8844,7 +8896,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8853,7 +8905,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8862,7 +8914,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8871,7 +8923,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8880,7 +8932,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8889,7 +8941,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8898,7 +8950,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8907,7 +8959,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8916,7 +8968,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8925,7 +8977,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8934,7 +8986,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8943,7 +8995,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8952,7 +9004,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8961,7 +9013,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8970,7 +9022,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8979,7 +9031,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8988,7 +9040,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8997,7 +9049,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9006,7 +9058,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9015,7 +9067,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9024,7 +9076,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9033,7 +9085,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9042,7 +9094,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1795,7 +1795,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A102" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1960,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.794</v>
+        <v>19.044</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1970,7 +1970,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.41700000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4198,15 +4198,17 @@
       <c r="B112" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39">
         <v>1</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -4241,7 +4243,9 @@
       <c r="A114" s="40">
         <v>45139</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
@@ -4250,18 +4254,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="39">
+        <v>1</v>
+      </c>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="47">
+        <v>45154</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45170</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C115" s="13"/>
-      <c r="D115" s="39"/>
+      <c r="D115" s="39">
+        <v>2</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">

--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1798,10 +1798,10 @@
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A102" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1966,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.044</v>
+        <v>25.294</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1976,7 +1976,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>-1.333</v>
+        <v>-8.2999999999999963E-2</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4416,13 +4416,15 @@
         <v>45261</v>
       </c>
       <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
+      <c r="C121" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G121" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
@@ -4451,7 +4453,9 @@
       <c r="A123" s="40">
         <v>45292</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
@@ -4463,7 +4467,9 @@
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="47">
+        <v>45296</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
@@ -4580,10 +4586,10 @@
   </sheetPr>
   <dimension ref="A2:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A115" activePane="bottomLeft"/>
       <selection activeCell="F106" sqref="F106:G106"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8077,17 +8083,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
